--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.64829424277695</v>
+        <v>2.053268</v>
       </c>
       <c r="H2">
-        <v>1.64829424277695</v>
+        <v>6.159803999999999</v>
       </c>
       <c r="I2">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="J2">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N2">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q2">
-        <v>54.91817160781521</v>
+        <v>68.61567815329732</v>
       </c>
       <c r="R2">
-        <v>54.91817160781521</v>
+        <v>617.541103379676</v>
       </c>
       <c r="S2">
-        <v>0.005523522833372848</v>
+        <v>0.006670620894615491</v>
       </c>
       <c r="T2">
-        <v>0.005523522833372848</v>
+        <v>0.006670620894615489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.64829424277695</v>
+        <v>2.053268</v>
       </c>
       <c r="H3">
-        <v>1.64829424277695</v>
+        <v>6.159803999999999</v>
       </c>
       <c r="I3">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="J3">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q3">
-        <v>59.784542887104</v>
+        <v>74.70970845060799</v>
       </c>
       <c r="R3">
-        <v>59.784542887104</v>
+        <v>672.3873760554719</v>
       </c>
       <c r="S3">
-        <v>0.006012969442571257</v>
+        <v>0.007263065171604785</v>
       </c>
       <c r="T3">
-        <v>0.006012969442571257</v>
+        <v>0.007263065171604782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.64829424277695</v>
+        <v>2.053268</v>
       </c>
       <c r="H4">
-        <v>1.64829424277695</v>
+        <v>6.159803999999999</v>
       </c>
       <c r="I4">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="J4">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N4">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q4">
-        <v>111.5578116367449</v>
+        <v>142.2224470052213</v>
       </c>
       <c r="R4">
-        <v>111.5578116367449</v>
+        <v>1280.002023046992</v>
       </c>
       <c r="S4">
-        <v>0.01122018635684113</v>
+        <v>0.01382646141829006</v>
       </c>
       <c r="T4">
-        <v>0.01122018635684113</v>
+        <v>0.01382646141829005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64829424277695</v>
+        <v>2.053268</v>
       </c>
       <c r="H5">
-        <v>1.64829424277695</v>
+        <v>6.159803999999999</v>
       </c>
       <c r="I5">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="J5">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N5">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q5">
-        <v>113.112827457321</v>
+        <v>143.6669210432213</v>
       </c>
       <c r="R5">
-        <v>113.112827457321</v>
+        <v>1293.002289388992</v>
       </c>
       <c r="S5">
-        <v>0.01137658568951639</v>
+        <v>0.01396688907212866</v>
       </c>
       <c r="T5">
-        <v>0.01137658568951639</v>
+        <v>0.01396688907212866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.64829424277695</v>
+        <v>2.053268</v>
       </c>
       <c r="H6">
-        <v>1.64829424277695</v>
+        <v>6.159803999999999</v>
       </c>
       <c r="I6">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="J6">
-        <v>0.03469656044624084</v>
+        <v>0.04241262911467491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N6">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q6">
-        <v>5.600627377441503</v>
+        <v>7.052176858747999</v>
       </c>
       <c r="R6">
-        <v>5.600627377441503</v>
+        <v>63.469591728732</v>
       </c>
       <c r="S6">
-        <v>0.00056329612393922</v>
+        <v>0.0006855925580359161</v>
       </c>
       <c r="T6">
-        <v>0.00056329612393922</v>
+        <v>0.0006855925580359159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.994213410179</v>
+        <v>38.22679533333334</v>
       </c>
       <c r="H7">
-        <v>37.994213410179</v>
+        <v>114.680386</v>
       </c>
       <c r="I7">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147658</v>
       </c>
       <c r="J7">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147657</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N7">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q7">
-        <v>1265.898210412255</v>
+        <v>1277.455006080048</v>
       </c>
       <c r="R7">
-        <v>1265.898210412255</v>
+        <v>11497.09505472043</v>
       </c>
       <c r="S7">
-        <v>0.1273206566283951</v>
+        <v>0.1241905390259447</v>
       </c>
       <c r="T7">
-        <v>0.1273206566283951</v>
+        <v>0.1241905390259446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.994213410179</v>
+        <v>38.22679533333334</v>
       </c>
       <c r="H8">
-        <v>37.994213410179</v>
+        <v>114.680386</v>
       </c>
       <c r="I8">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147658</v>
       </c>
       <c r="J8">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147657</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q8">
-        <v>1378.071112628407</v>
+        <v>1390.910847660605</v>
       </c>
       <c r="R8">
-        <v>1378.071112628407</v>
+        <v>12518.19762894545</v>
       </c>
       <c r="S8">
-        <v>0.1386027071507843</v>
+        <v>0.1352203929577618</v>
       </c>
       <c r="T8">
-        <v>0.1386027071507843</v>
+        <v>0.1352203929577618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.994213410179</v>
+        <v>38.22679533333334</v>
       </c>
       <c r="H9">
-        <v>37.994213410179</v>
+        <v>114.680386</v>
       </c>
       <c r="I9">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147658</v>
       </c>
       <c r="J9">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147657</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N9">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q9">
-        <v>2571.47734482053</v>
+        <v>2647.831833679014</v>
       </c>
       <c r="R9">
-        <v>2571.47734482053</v>
+        <v>23830.48650311113</v>
       </c>
       <c r="S9">
-        <v>0.2586323144741388</v>
+        <v>0.2574146730096626</v>
       </c>
       <c r="T9">
-        <v>0.2586323144741388</v>
+        <v>0.2574146730096625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.994213410179</v>
+        <v>38.22679533333334</v>
       </c>
       <c r="H10">
-        <v>37.994213410179</v>
+        <v>114.680386</v>
       </c>
       <c r="I10">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147658</v>
       </c>
       <c r="J10">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147657</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N10">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q10">
-        <v>2607.32143224732</v>
+        <v>2674.724384196014</v>
       </c>
       <c r="R10">
-        <v>2607.32143224732</v>
+        <v>24072.51945776413</v>
       </c>
       <c r="S10">
-        <v>0.2622374169301556</v>
+        <v>0.260029090213081</v>
       </c>
       <c r="T10">
-        <v>0.2622374169301556</v>
+        <v>0.2600290902130809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.994213410179</v>
+        <v>38.22679533333334</v>
       </c>
       <c r="H11">
-        <v>37.994213410179</v>
+        <v>114.680386</v>
       </c>
       <c r="I11">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147658</v>
       </c>
       <c r="J11">
-        <v>0.7997774232182647</v>
+        <v>0.7896187408147657</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N11">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q11">
-        <v>129.0979646030341</v>
+        <v>131.2941717466153</v>
       </c>
       <c r="R11">
-        <v>129.0979646030341</v>
+        <v>1181.647545719538</v>
       </c>
       <c r="S11">
-        <v>0.01298432803479101</v>
+        <v>0.01276404560831583</v>
       </c>
       <c r="T11">
-        <v>0.01298432803479101</v>
+        <v>0.01276404560831582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.86347627103651</v>
+        <v>0.02893233333333333</v>
       </c>
       <c r="H12">
-        <v>7.86347627103651</v>
+        <v>0.086797</v>
       </c>
       <c r="I12">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="J12">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N12">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q12">
-        <v>261.9967528122976</v>
+        <v>0.9668546298992223</v>
       </c>
       <c r="R12">
-        <v>261.9967528122976</v>
+        <v>8.701691669093</v>
       </c>
       <c r="S12">
-        <v>0.02635093274340419</v>
+        <v>9.399485467231439E-05</v>
       </c>
       <c r="T12">
-        <v>0.02635093274340419</v>
+        <v>9.399485467231436E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>7.86347627103651</v>
+        <v>0.02893233333333333</v>
       </c>
       <c r="H13">
-        <v>7.86347627103651</v>
+        <v>0.086797</v>
       </c>
       <c r="I13">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="J13">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q13">
-        <v>285.2126290118478</v>
+        <v>1.052724821177333</v>
       </c>
       <c r="R13">
-        <v>285.2126290118478</v>
+        <v>9.474523390596</v>
       </c>
       <c r="S13">
-        <v>0.02868592348564376</v>
+        <v>0.0001023429102126919</v>
       </c>
       <c r="T13">
-        <v>0.02868592348564376</v>
+        <v>0.0001023429102126919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.86347627103651</v>
+        <v>0.02893233333333333</v>
       </c>
       <c r="H14">
-        <v>7.86347627103651</v>
+        <v>0.086797</v>
       </c>
       <c r="I14">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="J14">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N14">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q14">
-        <v>532.2060721248379</v>
+        <v>2.004038072106222</v>
       </c>
       <c r="R14">
-        <v>532.2060721248379</v>
+        <v>18.036342648956</v>
       </c>
       <c r="S14">
-        <v>0.05352786346264463</v>
+        <v>0.0001948268762647842</v>
       </c>
       <c r="T14">
-        <v>0.05352786346264463</v>
+        <v>0.0001948268762647841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.86347627103651</v>
+        <v>0.02893233333333333</v>
       </c>
       <c r="H15">
-        <v>7.86347627103651</v>
+        <v>0.086797</v>
       </c>
       <c r="I15">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="J15">
-        <v>0.1655260163354944</v>
+        <v>0.0005976308611875376</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N15">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q15">
-        <v>539.6245473514367</v>
+        <v>2.024391968606222</v>
       </c>
       <c r="R15">
-        <v>539.6245473514367</v>
+        <v>18.219527717456</v>
       </c>
       <c r="S15">
-        <v>0.05427399386180558</v>
+        <v>0.000196805624138942</v>
       </c>
       <c r="T15">
-        <v>0.05427399386180558</v>
+        <v>0.000196805624138942</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02893233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.086797</v>
+      </c>
+      <c r="I16">
+        <v>0.0005976308611875376</v>
+      </c>
+      <c r="J16">
+        <v>0.0005976308611875376</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.434611</v>
+      </c>
+      <c r="N16">
+        <v>10.303833</v>
+      </c>
+      <c r="O16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q16">
+        <v>0.09937131032233334</v>
+      </c>
+      <c r="R16">
+        <v>0.894341792901</v>
+      </c>
+      <c r="S16">
+        <v>9.660595898805127E-06</v>
+      </c>
+      <c r="T16">
+        <v>9.660595898805126E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.102716666666666</v>
+      </c>
+      <c r="H17">
+        <v>24.30815</v>
+      </c>
+      <c r="I17">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="J17">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41778966666667</v>
+      </c>
+      <c r="N17">
+        <v>100.253369</v>
+      </c>
+      <c r="O17">
+        <v>0.1572791178915017</v>
+      </c>
+      <c r="P17">
+        <v>0.1572791178915016</v>
+      </c>
+      <c r="Q17">
+        <v>270.7748812952611</v>
+      </c>
+      <c r="R17">
+        <v>2436.97393165735</v>
+      </c>
+      <c r="S17">
+        <v>0.02632396311626921</v>
+      </c>
+      <c r="T17">
+        <v>0.0263239631162692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.102716666666666</v>
+      </c>
+      <c r="H18">
+        <v>24.30815</v>
+      </c>
+      <c r="I18">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="J18">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>36.385756</v>
+      </c>
+      <c r="N18">
+        <v>109.157268</v>
+      </c>
+      <c r="O18">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="P18">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="Q18">
+        <v>294.8234715704667</v>
+      </c>
+      <c r="R18">
+        <v>2653.4112441342</v>
+      </c>
+      <c r="S18">
+        <v>0.02866189860118031</v>
+      </c>
+      <c r="T18">
+        <v>0.0286618986011803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.102716666666666</v>
+      </c>
+      <c r="H19">
+        <v>24.30815</v>
+      </c>
+      <c r="I19">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="J19">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>69.26638266666667</v>
+      </c>
+      <c r="N19">
+        <v>207.799148</v>
+      </c>
+      <c r="O19">
+        <v>0.3259986873463135</v>
+      </c>
+      <c r="P19">
+        <v>0.3259986873463134</v>
+      </c>
+      <c r="Q19">
+        <v>561.2458732729111</v>
+      </c>
+      <c r="R19">
+        <v>5051.2128594562</v>
+      </c>
+      <c r="S19">
+        <v>0.05456272604209607</v>
+      </c>
+      <c r="T19">
+        <v>0.05456272604209604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.86347627103651</v>
-      </c>
-      <c r="H16">
-        <v>7.86347627103651</v>
-      </c>
-      <c r="I16">
-        <v>0.1655260163354944</v>
-      </c>
-      <c r="J16">
-        <v>0.1655260163354944</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="N16">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="O16">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="P16">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="Q16">
-        <v>26.71877347046484</v>
-      </c>
-      <c r="R16">
-        <v>26.71877347046484</v>
-      </c>
-      <c r="S16">
-        <v>0.002687302781996249</v>
-      </c>
-      <c r="T16">
-        <v>0.002687302781996249</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.102716666666666</v>
+      </c>
+      <c r="H20">
+        <v>24.30815</v>
+      </c>
+      <c r="I20">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="J20">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>69.96988266666666</v>
+      </c>
+      <c r="N20">
+        <v>209.909648</v>
+      </c>
+      <c r="O20">
+        <v>0.3293096741153468</v>
+      </c>
+      <c r="P20">
+        <v>0.3293096741153467</v>
+      </c>
+      <c r="Q20">
+        <v>566.946134447911</v>
+      </c>
+      <c r="R20">
+        <v>5102.5152100312</v>
+      </c>
+      <c r="S20">
+        <v>0.05511688920599817</v>
+      </c>
+      <c r="T20">
+        <v>0.05511688920599816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.102716666666666</v>
+      </c>
+      <c r="H21">
+        <v>24.30815</v>
+      </c>
+      <c r="I21">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="J21">
+        <v>0.1673709992093717</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.434611</v>
+      </c>
+      <c r="N21">
+        <v>10.303833</v>
+      </c>
+      <c r="O21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q21">
+        <v>27.82967979321667</v>
+      </c>
+      <c r="R21">
+        <v>250.46711813895</v>
+      </c>
+      <c r="S21">
+        <v>0.00270552224382801</v>
+      </c>
+      <c r="T21">
+        <v>0.00270552224382801</v>
       </c>
     </row>
   </sheetData>
